--- a/import/prep/excel/59-1ทะเบียนคุมใบแจ้งหนี้+ใบเสร็จ เมย59 (1-30มิย59).xlsx
+++ b/import/prep/excel/59-1ทะเบียนคุมใบแจ้งหนี้+ใบเสร็จ เมย59 (1-30มิย59).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209ACF0-08AA-FD41-914C-4A503FD27502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4941F63A-880F-6146-81E1-E3A2CD07CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8200" windowWidth="50140" windowHeight="19120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ทะเบียนคุมใบแจ้งหนี้ ประเภท 2" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4887" uniqueCount="2574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4889" uniqueCount="2574">
   <si>
     <t>เลขที่ผู้ใช้น้ำ</t>
   </si>
@@ -8251,10 +8251,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -64125,8 +64125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M170"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -64209,7 +64209,9 @@
       <c r="J3" s="109" t="s">
         <v>2313</v>
       </c>
-      <c r="K3" s="98"/>
+      <c r="K3" s="98" t="s">
+        <v>5</v>
+      </c>
       <c r="L3" s="119" t="s">
         <v>2466</v>
       </c>
@@ -64228,7 +64230,9 @@
       <c r="H4" s="50"/>
       <c r="I4" s="118"/>
       <c r="J4" s="110"/>
-      <c r="K4" s="99"/>
+      <c r="K4" s="99" t="s">
+        <v>2553</v>
+      </c>
       <c r="L4" s="120"/>
       <c r="M4" s="74"/>
     </row>
@@ -70818,8 +70822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
